--- a/Import_Accounting/Template_Bill_Refunds.xlsx
+++ b/Import_Accounting/Template_Bill_Refunds.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
     <sheet name="Bill" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="161">
   <si>
     <t>invoice_date</t>
   </si>
@@ -107,6 +107,402 @@
   </si>
   <si>
     <t>ref</t>
+  </si>
+  <si>
+    <t>BGD-000784</t>
+  </si>
+  <si>
+    <t>BGD-000898</t>
+  </si>
+  <si>
+    <t>BGD-6709001</t>
+  </si>
+  <si>
+    <t>BGD-000001</t>
+  </si>
+  <si>
+    <t>BGD-000002</t>
+  </si>
+  <si>
+    <t>BGD-000003</t>
+  </si>
+  <si>
+    <t>BGD-000004</t>
+  </si>
+  <si>
+    <t>BGD-000635</t>
+  </si>
+  <si>
+    <t>BRO-000001</t>
+  </si>
+  <si>
+    <t>BGD-000881</t>
+  </si>
+  <si>
+    <t>BGD-000930</t>
+  </si>
+  <si>
+    <t>BGD-000935</t>
+  </si>
+  <si>
+    <t>BRO-000350</t>
+  </si>
+  <si>
+    <t>BRO-000057</t>
+  </si>
+  <si>
+    <t>BGD-000838</t>
+  </si>
+  <si>
+    <t>BGD-000857</t>
+  </si>
+  <si>
+    <t>BGD-000897</t>
+  </si>
+  <si>
+    <t>BGD-000944</t>
+  </si>
+  <si>
+    <t>BGD-000945</t>
+  </si>
+  <si>
+    <t>BGD-000946</t>
+  </si>
+  <si>
+    <t>BGD-000947</t>
+  </si>
+  <si>
+    <t>BGD-000948</t>
+  </si>
+  <si>
+    <t>RO-0010671</t>
+  </si>
+  <si>
+    <t>RO-0010545</t>
+  </si>
+  <si>
+    <t>GD-0043210</t>
+  </si>
+  <si>
+    <t>GD-0043141</t>
+  </si>
+  <si>
+    <t>GD-0043142</t>
+  </si>
+  <si>
+    <t>GD-0043201</t>
+  </si>
+  <si>
+    <t>GD-0043202</t>
+  </si>
+  <si>
+    <t>GD-0043237</t>
+  </si>
+  <si>
+    <t>GD-0043238</t>
+  </si>
+  <si>
+    <t>GD-0043239</t>
+  </si>
+  <si>
+    <t>GD-0043240</t>
+  </si>
+  <si>
+    <t>BGD-001200</t>
+  </si>
+  <si>
+    <t>RO-0010771</t>
+  </si>
+  <si>
+    <t>BGD-001160</t>
+  </si>
+  <si>
+    <t>BRO-000387</t>
+  </si>
+  <si>
+    <t>RO-0010780</t>
+  </si>
+  <si>
+    <t>GI-0003261</t>
+  </si>
+  <si>
+    <t>GI-0003265</t>
+  </si>
+  <si>
+    <t>GI-0003269</t>
+  </si>
+  <si>
+    <t>GI-0003264</t>
+  </si>
+  <si>
+    <t>BGD-001148</t>
+  </si>
+  <si>
+    <t>BGD-001126</t>
+  </si>
+  <si>
+    <t>RO-0010789</t>
+  </si>
+  <si>
+    <t>GD-0043284</t>
+  </si>
+  <si>
+    <t>GD-0043475</t>
+  </si>
+  <si>
+    <t>BGD-001156</t>
+  </si>
+  <si>
+    <t>GD-0043474</t>
+  </si>
+  <si>
+    <t>9/27/2024</t>
+  </si>
+  <si>
+    <t>6/28/2024</t>
+  </si>
+  <si>
+    <t>9/24/2024</t>
+  </si>
+  <si>
+    <t>6/30/2024</t>
+  </si>
+  <si>
+    <t>12/21/2024</t>
+  </si>
+  <si>
+    <t>12/24/2024</t>
+  </si>
+  <si>
+    <t>8/29/2024</t>
+  </si>
+  <si>
+    <t>11/28/2024</t>
+  </si>
+  <si>
+    <t>12/26/2024</t>
+  </si>
+  <si>
+    <t>10/16/2024</t>
+  </si>
+  <si>
+    <t>12/20/2024</t>
+  </si>
+  <si>
+    <t>12/19/2024</t>
+  </si>
+  <si>
+    <t>12/25/2024</t>
+  </si>
+  <si>
+    <t>2/25/2025</t>
+  </si>
+  <si>
+    <t>2/19/2025</t>
+  </si>
+  <si>
+    <t>2/17/2025</t>
+  </si>
+  <si>
+    <t>1/31/2025</t>
+  </si>
+  <si>
+    <t>2/21/2025</t>
+  </si>
+  <si>
+    <t>1/13/2025</t>
+  </si>
+  <si>
+    <t>1/25/2025</t>
+  </si>
+  <si>
+    <t>2/24/2025</t>
+  </si>
+  <si>
+    <t>1/20/2025</t>
+  </si>
+  <si>
+    <t>CSI001</t>
+  </si>
+  <si>
+    <t>IDS001</t>
+  </si>
+  <si>
+    <t>M013</t>
+  </si>
+  <si>
+    <t>PSM001</t>
+  </si>
+  <si>
+    <t>VEN6100109</t>
+  </si>
+  <si>
+    <t>VEN6200081</t>
+  </si>
+  <si>
+    <t>YUK001</t>
+  </si>
+  <si>
+    <t>HAF01</t>
+  </si>
+  <si>
+    <t>LNM001</t>
+  </si>
+  <si>
+    <t>TCI001</t>
+  </si>
+  <si>
+    <t>VPK001</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>OFM001</t>
+  </si>
+  <si>
+    <t>STM01</t>
+  </si>
+  <si>
+    <t>DOH001</t>
+  </si>
+  <si>
+    <t>BFT001</t>
+  </si>
+  <si>
+    <t>TGN001</t>
+  </si>
+  <si>
+    <t>VSA001</t>
+  </si>
+  <si>
+    <t>CRC008</t>
+  </si>
+  <si>
+    <t>สมุดรายวันซื้อ</t>
+  </si>
+  <si>
+    <t>บริษัท คาซ่า อินโนเทค จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>MIROTONE (THAILAND) CO., LTD.</t>
+  </si>
+  <si>
+    <t>บริษัท พี.เอส.เอ็ม.ฮาร์ดแวร์ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท บัณฑิต แอนด์ แมชชีน สเปค จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท เอส.เอส.โซลูชั่น จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท ย่งง้วนเหล็กกล้า จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท เฮเฟเล่ (ประเทศไทย) จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท ลานนา ไม้อัดไทย จำกัด (สาขาที่ 00001)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทยอุตสาหกรรมเครื่องปั้นดินเผา จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท วี พี เค ยูไนเต็ด จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ</t>
+  </si>
+  <si>
+    <t>บริษัท ออฟฟิศเมท (ไทย) จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท สตาร์มาร์คแมนูแฟคเชอร์ริ่ง จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท ดูโฮม จำกัด (มหาชน) (สาขาที่ 00003)</t>
+  </si>
+  <si>
+    <t>บริษัท บีเอฟ ทรานสปอร์ต จำกัด ( สำนักงานใหญ่ )</t>
+  </si>
+  <si>
+    <t>บริษัท ที กรุ๊ป เอ็นจิเนียแอนด์แมชชีนทูล จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท วี เอส เอท อินเตอร์ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท ซีอาร์ซี ไทวัสดุ จำกัด (สาขาลำลูกกา) สาขาที่ 00058</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท คาซ่า อินโนเทค จำกัด (สำนักงานใหญ่)บริษัท คาซ่า อินโนเทค จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่)บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - MIROTONE (THAILAND) CO., LTD.MIROTONE (THAILAND) CO., LTD.</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท พี.เอส.เอ็ม.ฮาร์ดแวร์ จำกัด (สำนักงานใหญ่)บริษัท พี.เอส.เอ็ม.ฮาร์ดแวร์ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท บัณฑิต แอนด์ แมชชีน สเปค จำกัด (สำนักงานใหญ่)บริษัท บัณฑิต แอนด์ แมชชีน สเปค จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท เอส.เอส.โซลูชั่น จำกัด (สำนักงานใหญ่)บริษัท เอส.เอส.โซลูชั่น จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ย่งง้วนเหล็กกล้า จำกัด (สำนักงานใหญ่)บริษัท ย่งง้วนเหล็กกล้า จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท เฮเฟเล่ (ประเทศไทย) จำกัด (สำนักงานใหญ่)บริษัท เฮเฟเล่ (ประเทศไทย) จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ลานนา ไม้อัดไทย จำกัด (สาขาที่ 00001)บริษัท ลานนา ไม้อัดไทย จำกัด (สาขาที่ 00001)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ไทยอุตสาหกรรมเครื่องปั้นดินเผา จำกัด (สำนักงานใหญ่)บริษัท ไทยอุตสาหกรรมเครื่องปั้นดินเผา จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท วี พี เค ยูไนเต็ด จำกัด (สำนักงานใหญ่)บริษัท วี พี เค ยูไนเต็ด จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - เจ้าหนี้การค้าในประเทศเจ้าหนี้การค้าในประเทศ</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ออฟฟิศเมท (ไทย) จำกัด (สำนักงานใหญ่)บริษัท ออฟฟิศเมท (ไทย) จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท สตาร์มาร์คแมนูแฟคเชอร์ริ่ง จำกัด (สำนักงานใหญ่)บริษัท สตาร์มาร์คแมนูแฟคเชอร์ริ่ง จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ดูโฮม จำกัด (มหาชน) (สาขาที่ 00003)บริษัท ดูโฮม จำกัด (มหาชน) (สาขาที่ 00003)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท บีเอฟ ทรานสปอร์ต จำกัด ( สำนักงานใหญ่ )EXPRESS STAR LINE LTD. JYH20241215-2</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท บีเอฟ ทรานสปอร์ต จำกัด ( สำนักงานใหญ่ )EXPRESS STAR LINE LTD. JYH20241222</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท บีเอฟ ทรานสปอร์ต จำกัด ( สำนักงานใหญ่ )EXPRESS STAR LINE LTD. JYH2025110</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท บีเอฟ ทรานสปอร์ต จำกัด ( สำนักงานใหญ่ )ZHEJIANG YOUBO INTERLLIGENT TECHNOLOGY CO.,LTD. 24SC-MOG-22</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ที กรุ๊ป เอ็นจิเนียแอนด์แมชชีนทูล จำกัด (สำนักงานใหญ่)บริษัท ที กรุ๊ป เอ็นจิเนียแอนด์แมชชีนทูล จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท วี เอส เอท อินเตอร์ จำกัด (สำนักงานใหญ่)บริษัท วี เอส เอท อินเตอร์ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ซีอาร์ซี ไทวัสดุ จำกัด (สาขาลำลูกกา) สาขาที่ 00058บริษัท ซีอาร์ซี ไทวัสดุ จำกัด (สาขาลำลูกกา) สาขาที่ 00058</t>
   </si>
 </sst>
 </file>
@@ -150,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,13 +569,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -191,9 +607,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -209,6 +622,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1340,24 +1768,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="8" width="22.21875" customWidth="1"/>
-    <col min="9" max="11" width="24.6640625" customWidth="1"/>
-    <col min="12" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="12" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13" style="11" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="40.109375" style="11" customWidth="1"/>
+    <col min="10" max="11" width="24.6640625" style="11" customWidth="1"/>
+    <col min="12" max="13" width="12.88671875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="15" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="22.2" customHeight="1">
@@ -1370,10 +1800,10 @@
       <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1407,51 +1837,2204 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>18</v>
+    <row r="2" spans="1:15" ht="39.6">
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12">
+        <v>45546</v>
+      </c>
+      <c r="C2" s="12">
+        <v>45546</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13">
+        <v>6173.9</v>
+      </c>
+      <c r="M2" s="11">
+        <v>7</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="39.6">
+      <c r="A3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12">
+        <v>45577</v>
+      </c>
+      <c r="C3" s="12">
+        <v>45577</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
+        <v>9260.85</v>
+      </c>
+      <c r="M3" s="11">
+        <v>7</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="39.6">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13">
+        <v>3210</v>
+      </c>
+      <c r="M4" s="11">
+        <v>7</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="39.6">
+      <c r="A5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
+        <v>4362618.38</v>
+      </c>
+      <c r="M5" s="11">
+        <v>7</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="39.6">
+      <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1162265.67</v>
+      </c>
+      <c r="M6" s="11">
+        <v>7</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="39.6">
+      <c r="A7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <v>12795800.199999999</v>
+      </c>
+      <c r="M7" s="11">
+        <v>7</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="39.6">
+      <c r="A8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
+        <v>5160184.3499999996</v>
+      </c>
+      <c r="M8" s="11">
+        <v>7</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="39.6">
+      <c r="A9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
+        <v>944222.57</v>
+      </c>
+      <c r="M9" s="11">
+        <v>7</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="39.6">
+      <c r="A10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13">
+        <v>7588333</v>
+      </c>
+      <c r="M10" s="11">
+        <v>7</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="39.6">
+      <c r="A11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="12">
+        <v>45485</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45485</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
+        <v>57914.82</v>
+      </c>
+      <c r="M11" s="11">
+        <v>7</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="39.6">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
+        <v>27369.42</v>
+      </c>
+      <c r="M12" s="11">
+        <v>7</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="39.6">
+      <c r="A13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
+        <v>4800</v>
+      </c>
+      <c r="M13" s="11">
+        <v>7</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="39.6">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11">
+        <v>600</v>
+      </c>
+      <c r="M14" s="11">
+        <v>7</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="52.8">
+      <c r="A15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
+        <v>3049.5</v>
+      </c>
+      <c r="M15" s="11">
+        <v>7</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="39.6">
+      <c r="A16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13">
+        <v>1926</v>
+      </c>
+      <c r="M16" s="11">
+        <v>7</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="39.6">
+      <c r="A17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="12">
+        <v>45424</v>
+      </c>
+      <c r="C17" s="12">
+        <v>45424</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
+        <v>33116.5</v>
+      </c>
+      <c r="M17" s="11">
+        <v>7</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="39.6">
+      <c r="A18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="12">
+        <v>45577</v>
+      </c>
+      <c r="C18" s="12">
+        <v>45577</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1</v>
+      </c>
+      <c r="L18" s="13">
+        <v>47294</v>
+      </c>
+      <c r="M18" s="11">
+        <v>7</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="39.6">
+      <c r="A19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1</v>
+      </c>
+      <c r="L19" s="13">
+        <v>4654.5</v>
+      </c>
+      <c r="M19" s="11">
+        <v>7</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="39.6">
+      <c r="A20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K20" s="11">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13">
+        <v>6580.5</v>
+      </c>
+      <c r="M20" s="11">
+        <v>7</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="39.6">
+      <c r="A21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1</v>
+      </c>
+      <c r="L21" s="13">
+        <v>10860.5</v>
+      </c>
+      <c r="M21" s="11">
+        <v>7</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="39.6">
+      <c r="A22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1</v>
+      </c>
+      <c r="L22" s="13">
+        <v>24299.7</v>
+      </c>
+      <c r="M22" s="11">
+        <v>7</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="39.6">
+      <c r="A23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1</v>
+      </c>
+      <c r="L23" s="13">
+        <v>28729.5</v>
+      </c>
+      <c r="M23" s="11">
+        <v>7</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="39.6">
+      <c r="A24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1</v>
+      </c>
+      <c r="L24" s="13">
+        <v>25849.99</v>
+      </c>
+      <c r="M24" s="11">
+        <v>7</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="39.6">
+      <c r="A25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1</v>
+      </c>
+      <c r="L25" s="13">
+        <v>6300</v>
+      </c>
+      <c r="M25" s="11">
+        <v>7</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="52.8">
+      <c r="A26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1</v>
+      </c>
+      <c r="L26" s="13">
+        <v>32742</v>
+      </c>
+      <c r="M26" s="11">
+        <v>7</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="39.6">
+      <c r="A27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="12">
+        <v>45455</v>
+      </c>
+      <c r="C27" s="12">
+        <v>45455</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13">
+        <v>21457.78</v>
+      </c>
+      <c r="M27" s="11">
+        <v>7</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="39.6">
+      <c r="A28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="12">
+        <v>45455</v>
+      </c>
+      <c r="C28" s="12">
+        <v>45455</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13">
+        <v>13696</v>
+      </c>
+      <c r="M28" s="11">
+        <v>7</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="39.6">
+      <c r="A29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1</v>
+      </c>
+      <c r="L29" s="13">
+        <v>5457</v>
+      </c>
+      <c r="M29" s="11">
+        <v>7</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="39.6">
+      <c r="A30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1</v>
+      </c>
+      <c r="L30" s="13">
+        <v>8985.86</v>
+      </c>
+      <c r="M30" s="11">
+        <v>7</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="39.6">
+      <c r="A31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1</v>
+      </c>
+      <c r="L31" s="13">
+        <v>40018</v>
+      </c>
+      <c r="M31" s="11">
+        <v>7</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="39.6">
+      <c r="A32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="13">
+        <v>52859.07</v>
+      </c>
+      <c r="M32" s="11">
+        <v>7</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="39.6">
+      <c r="A33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1</v>
+      </c>
+      <c r="L33" s="13">
+        <v>12305</v>
+      </c>
+      <c r="M33" s="11">
+        <v>7</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="39.6">
+      <c r="A34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J34" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13">
+        <v>20338.560000000001</v>
+      </c>
+      <c r="M34" s="11">
+        <v>7</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="26.4">
+      <c r="A35" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1</v>
+      </c>
+      <c r="L35" s="11">
+        <v>22</v>
+      </c>
+      <c r="M35" s="11">
+        <v>7</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="39.6">
+      <c r="A36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J36" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1</v>
+      </c>
+      <c r="L36" s="11">
+        <v>71.010000000000005</v>
+      </c>
+      <c r="M36" s="11">
+        <v>7</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="39.6">
+      <c r="A37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J37" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1</v>
+      </c>
+      <c r="L37" s="11">
+        <v>85.6</v>
+      </c>
+      <c r="M37" s="11">
+        <v>7</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="39.6">
+      <c r="A38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1</v>
+      </c>
+      <c r="L38" s="11">
+        <v>120</v>
+      </c>
+      <c r="M38" s="11">
+        <v>7</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="39.6">
+      <c r="A39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J39" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1</v>
+      </c>
+      <c r="L39" s="11">
+        <v>120</v>
+      </c>
+      <c r="M39" s="11">
+        <v>7</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="39.6">
+      <c r="A40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="12">
+        <v>45717</v>
+      </c>
+      <c r="C40" s="12">
+        <v>45717</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1</v>
+      </c>
+      <c r="L40" s="11">
+        <v>165</v>
+      </c>
+      <c r="M40" s="11">
+        <v>7</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="39.6">
+      <c r="A41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K41" s="11">
+        <v>1</v>
+      </c>
+      <c r="L41" s="11">
+        <v>165</v>
+      </c>
+      <c r="M41" s="11">
+        <v>7</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="39.6">
+      <c r="A42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1</v>
+      </c>
+      <c r="L42" s="11">
+        <v>165</v>
+      </c>
+      <c r="M42" s="11">
+        <v>7</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="52.8">
+      <c r="A43" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="12">
+        <v>45962</v>
+      </c>
+      <c r="C43" s="12">
+        <v>45962</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J43" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K43" s="11">
+        <v>1</v>
+      </c>
+      <c r="L43" s="11">
+        <v>214</v>
+      </c>
+      <c r="M43" s="11">
+        <v>7</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="52.8">
+      <c r="A44" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J44" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K44" s="11">
+        <v>1</v>
+      </c>
+      <c r="L44" s="11">
+        <v>235.4</v>
+      </c>
+      <c r="M44" s="11">
+        <v>7</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="52.8">
+      <c r="A45" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="12">
+        <v>45962</v>
+      </c>
+      <c r="C45" s="12">
+        <v>45962</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J45" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K45" s="11">
+        <v>1</v>
+      </c>
+      <c r="L45" s="11">
+        <v>267.5</v>
+      </c>
+      <c r="M45" s="11">
+        <v>7</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="52.8">
+      <c r="A46" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="12">
+        <v>45963</v>
+      </c>
+      <c r="C46" s="12">
+        <v>45963</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J46" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K46" s="11">
+        <v>1</v>
+      </c>
+      <c r="L46" s="11">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="M46" s="11">
+        <v>7</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="39.6">
+      <c r="A47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J47" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K47" s="11">
+        <v>1</v>
+      </c>
+      <c r="L47" s="11">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="M47" s="11">
+        <v>7</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="52.8">
+      <c r="A48" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J48" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K48" s="11">
+        <v>1</v>
+      </c>
+      <c r="L48" s="11">
+        <v>321</v>
+      </c>
+      <c r="M48" s="11">
+        <v>7</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="26.4">
+      <c r="A49" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K49" s="11">
+        <v>1</v>
+      </c>
+      <c r="L49" s="11">
+        <v>330</v>
+      </c>
+      <c r="M49" s="11">
+        <v>7</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="39.6">
+      <c r="A50" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K50" s="11">
+        <v>1</v>
+      </c>
+      <c r="L50" s="11">
+        <v>350</v>
+      </c>
+      <c r="M50" s="11">
+        <v>7</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="39.6">
+      <c r="A51" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J51" s="11">
+        <v>900001</v>
+      </c>
+      <c r="K51" s="11">
+        <v>1</v>
+      </c>
+      <c r="L51" s="11">
+        <v>408</v>
+      </c>
+      <c r="M51" s="11">
+        <v>7</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O51" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1464,22 +4047,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="8" width="22.21875" customWidth="1"/>
-    <col min="9" max="11" width="24.6640625" customWidth="1"/>
-    <col min="12" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="12" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13" style="11" customWidth="1"/>
+    <col min="7" max="8" width="22.21875" style="11" customWidth="1"/>
+    <col min="9" max="11" width="24.6640625" style="11" customWidth="1"/>
+    <col min="12" max="13" width="12.88671875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="15" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="22.2" customHeight="1">
@@ -1492,10 +4075,10 @@
       <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1529,50 +4112,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
